--- a/Project_Status_Tracker.xlsx
+++ b/Project_Status_Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chetan.sangundi\Desktop\Skawsh_Tracking_Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiteja.samala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3280C1-7F38-48BD-9E16-955C2BC7E8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B910568-9F81-42A0-AF66-1C38958DE739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2116079D-AE4F-477F-99F0-38E612F62DF2}"/>
   </bookViews>
@@ -588,7 +588,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>27</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>29</v>
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>9</v>
@@ -974,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>

--- a/Project_Status_Tracker.xlsx
+++ b/Project_Status_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiteja.samala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B910568-9F81-42A0-AF66-1C38958DE739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C152B1-FA3C-4FD2-A481-C1CF30CD402E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2116079D-AE4F-477F-99F0-38E612F62DF2}"/>
   </bookViews>
@@ -587,8 +587,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +686,7 @@
         <v>45682</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3">
         <v>100</v>
@@ -713,7 +713,7 @@
         <v>45687</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3">
         <v>50</v>
@@ -842,7 +842,7 @@
         <v>45712</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3">
         <v>30</v>
@@ -971,7 +971,7 @@
         <v>45735</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="G14" s="3">
         <v>40</v>

--- a/Project_Status_Tracker.xlsx
+++ b/Project_Status_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiteja.samala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C152B1-FA3C-4FD2-A481-C1CF30CD402E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680A1FE-B002-4B37-A322-10790253FD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2116079D-AE4F-477F-99F0-38E612F62DF2}"/>
   </bookViews>
@@ -588,7 +588,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,10 +713,10 @@
         <v>45687</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>29</v>
@@ -1178,10 +1178,10 @@
         <v>45767</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>35</v>

--- a/Project_Status_Tracker.xlsx
+++ b/Project_Status_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiteja.samala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680A1FE-B002-4B37-A322-10790253FD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F1284-8F4D-4F5A-B78B-7BCDACEE4338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2116079D-AE4F-477F-99F0-38E612F62DF2}"/>
   </bookViews>
@@ -587,8 +587,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,10 +713,10 @@
         <v>45687</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>29</v>

--- a/Project_Status_Tracker.xlsx
+++ b/Project_Status_Tracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiteja.samala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F1284-8F4D-4F5A-B78B-7BCDACEE4338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A055475A-0975-4E47-831D-62C70FAFAB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2116079D-AE4F-477F-99F0-38E612F62DF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Android_UserApp_Status_Tracker" sheetId="1" r:id="rId1"/>
+    <sheet name="IOS_UserApp_Status_Tracker" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
   <si>
     <t>Task ID</t>
   </si>
@@ -588,7 +589,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G5" sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,4 +1241,581 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F11049-EBE5-4B01-967F-EED247A06108}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45672</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45677</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45677</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45682</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45682</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45687</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45687</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45692</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45693</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45698</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45698</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45703</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45703</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45708</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45708</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45712</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45713</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45716</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45717</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45720</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45721</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45725</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45726</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45730</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45731</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45735</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45736</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45740</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45741</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45745</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45746</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45750</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3">
+        <v>70</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45717</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45721</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45721</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45726</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45748</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45752</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45752</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45757</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45762</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45767</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project_Status_Tracker.xlsx
+++ b/Project_Status_Tracker.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiteja.samala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A055475A-0975-4E47-831D-62C70FAFAB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CDB9AF-6CC2-4669-A665-FE2ECB212953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2116079D-AE4F-477F-99F0-38E612F62DF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Android_UserApp_Status_Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="IOS_UserApp_Status_Tracker" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Task ID</t>
   </si>
@@ -588,8 +587,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:H22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,10 +686,10 @@
         <v>45682</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>27</v>
@@ -1179,10 +1178,10 @@
         <v>45767</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>35</v>
@@ -1241,581 +1240,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F11049-EBE5-4B01-967F-EED247A06108}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45672</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45677</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45677</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45682</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="3">
-        <v>100</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45682</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45687</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3">
-        <v>100</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45687</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45692</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45693</v>
-      </c>
-      <c r="E6" s="4">
-        <v>45698</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45698</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45703</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45703</v>
-      </c>
-      <c r="E8" s="4">
-        <v>45708</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4">
-        <v>45708</v>
-      </c>
-      <c r="E9" s="4">
-        <v>45712</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45713</v>
-      </c>
-      <c r="E10" s="4">
-        <v>45716</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45717</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45720</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4">
-        <v>45721</v>
-      </c>
-      <c r="E12" s="4">
-        <v>45725</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4">
-        <v>45726</v>
-      </c>
-      <c r="E13" s="4">
-        <v>45730</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4">
-        <v>45731</v>
-      </c>
-      <c r="E14" s="4">
-        <v>45735</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3">
-        <v>40</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4">
-        <v>45736</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45740</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4">
-        <v>45741</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45745</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4">
-        <v>45746</v>
-      </c>
-      <c r="E17" s="4">
-        <v>45750</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="3">
-        <v>70</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="4">
-        <v>45717</v>
-      </c>
-      <c r="E18" s="4">
-        <v>45721</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="4">
-        <v>45721</v>
-      </c>
-      <c r="E19" s="4">
-        <v>45726</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4">
-        <v>45748</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45752</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="4">
-        <v>45752</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45757</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="4">
-        <v>45762</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45767</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Project_Status_Tracker.xlsx
+++ b/Project_Status_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiteja.samala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CDB9AF-6CC2-4669-A665-FE2ECB212953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD779BF8-CDF6-485B-AAED-FECED598AAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2116079D-AE4F-477F-99F0-38E612F62DF2}"/>
   </bookViews>
@@ -203,12 +203,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -238,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -248,6 +260,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,8 +611,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,26 +694,26 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>45677</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>45682</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5">
+        <v>100</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>27</v>
@@ -826,26 +850,26 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <v>45708</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <v>45712</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3">
-        <v>30</v>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>9</v>

--- a/Project_Status_Tracker.xlsx
+++ b/Project_Status_Tracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiteja.samala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD779BF8-CDF6-485B-AAED-FECED598AAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F50894-196C-46F5-B1DD-46743422993C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2116079D-AE4F-477F-99F0-38E612F62DF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2116079D-AE4F-477F-99F0-38E612F62DF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Android_UserApp_Status_Tracker" sheetId="1" r:id="rId1"/>
+    <sheet name="IOS_UserAPP_Status_Tracker" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
   <si>
     <t>Task ID</t>
   </si>
@@ -611,8 +612,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1264,4 +1265,581 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830AEB79-91BE-404F-8085-3BD58CB053D8}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45672</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45677</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45677</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45682</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5">
+        <v>100</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45682</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45687</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45687</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45692</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45693</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45698</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45698</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45703</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45703</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45708</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45708</v>
+      </c>
+      <c r="E9" s="8">
+        <v>45712</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45713</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45716</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45717</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45720</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45721</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45725</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45726</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45730</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45731</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45735</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45736</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45740</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45741</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45745</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45746</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45750</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3">
+        <v>70</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45717</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45721</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45721</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45726</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45748</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45752</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45752</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45757</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45762</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45767</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project_Status_Tracker.xlsx
+++ b/Project_Status_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiteja.samala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F50894-196C-46F5-B1DD-46743422993C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6FF014-9A3E-422E-A94B-D8F0DFF02D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2116079D-AE4F-477F-99F0-38E612F62DF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="47">
   <si>
     <t>Task ID</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Progress (%)</t>
   </si>
   <si>
     <t>Comments</t>
@@ -612,8 +609,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,7 +637,7 @@
     <col min="21" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -662,20 +659,17 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4">
         <v>45672</v>
@@ -684,25 +678,22 @@
         <v>45677</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6">
         <v>45677</v>
@@ -711,25 +702,22 @@
         <v>45682</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="5">
-        <v>100</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4">
         <v>45682</v>
@@ -738,25 +726,22 @@
         <v>45687</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3">
-        <v>100</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4">
         <v>45687</v>
@@ -765,13 +750,10 @@
         <v>45692</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -780,10 +762,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
         <v>45693</v>
@@ -792,12 +774,9 @@
         <v>45698</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -805,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4">
         <v>45698</v>
@@ -817,12 +796,9 @@
         <v>45703</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -830,10 +806,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4">
         <v>45703</v>
@@ -842,23 +818,20 @@
         <v>45708</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8">
         <v>45708</v>
@@ -867,24 +840,21 @@
         <v>45712</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="7">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4">
         <v>45713</v>
@@ -893,24 +863,21 @@
         <v>45716</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4">
         <v>45717</v>
@@ -919,13 +886,10 @@
         <v>45720</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -934,10 +898,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4">
         <v>45721</v>
@@ -946,12 +910,9 @@
         <v>45725</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -959,10 +920,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4">
         <v>45726</v>
@@ -971,12 +932,9 @@
         <v>45730</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -984,10 +942,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>45731</v>
@@ -996,12 +954,9 @@
         <v>45735</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3">
-        <v>40</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1009,10 +964,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>45736</v>
@@ -1021,12 +976,9 @@
         <v>45740</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1034,10 +986,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4">
         <v>45741</v>
@@ -1046,12 +998,9 @@
         <v>45745</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1059,10 +1008,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4">
         <v>45746</v>
@@ -1071,23 +1020,20 @@
         <v>45750</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="3">
-        <v>70</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="G17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4">
         <v>45717</v>
@@ -1096,25 +1042,22 @@
         <v>45721</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4">
         <v>45721</v>
@@ -1123,25 +1066,22 @@
         <v>45726</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D20" s="4">
         <v>45748</v>
@@ -1150,25 +1090,22 @@
         <v>45752</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4">
         <v>45752</v>
@@ -1177,24 +1114,21 @@
         <v>45757</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D22" s="4">
         <v>45762</v>
@@ -1203,13 +1137,10 @@
         <v>45767</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1270,10 +1201,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830AEB79-91BE-404F-8085-3BD58CB053D8}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1285,7 +1216,7 @@
     <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1307,19 +1238,16 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4">
         <v>45672</v>
@@ -1328,24 +1256,21 @@
         <v>45677</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6">
         <v>45677</v>
@@ -1354,24 +1279,21 @@
         <v>45682</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="5">
-        <v>100</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4">
         <v>45682</v>
@@ -1380,24 +1302,21 @@
         <v>45687</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3">
-        <v>100</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4">
         <v>45687</v>
@@ -1406,24 +1325,21 @@
         <v>45692</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="3">
-        <v>100</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
         <v>45693</v>
@@ -1432,22 +1348,19 @@
         <v>45698</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4">
         <v>45698</v>
@@ -1456,22 +1369,19 @@
         <v>45703</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4">
         <v>45703</v>
@@ -1480,22 +1390,19 @@
         <v>45708</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8">
         <v>45708</v>
@@ -1504,24 +1411,21 @@
         <v>45712</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="7">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4">
         <v>45713</v>
@@ -1530,24 +1434,21 @@
         <v>45716</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4">
         <v>45717</v>
@@ -1556,24 +1457,21 @@
         <v>45720</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4">
         <v>45721</v>
@@ -1582,22 +1480,19 @@
         <v>45725</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4">
         <v>45726</v>
@@ -1606,22 +1501,19 @@
         <v>45730</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>45731</v>
@@ -1630,22 +1522,19 @@
         <v>45735</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3">
-        <v>40</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>45736</v>
@@ -1654,22 +1543,19 @@
         <v>45740</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4">
         <v>45741</v>
@@ -1678,22 +1564,19 @@
         <v>45745</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4">
         <v>45746</v>
@@ -1702,22 +1585,19 @@
         <v>45750</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="3">
-        <v>70</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4">
         <v>45717</v>
@@ -1726,24 +1606,21 @@
         <v>45721</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4">
         <v>45721</v>
@@ -1752,24 +1629,21 @@
         <v>45726</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D20" s="4">
         <v>45748</v>
@@ -1778,24 +1652,21 @@
         <v>45752</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4">
         <v>45752</v>
@@ -1804,24 +1675,21 @@
         <v>45757</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D22" s="4">
         <v>45762</v>
@@ -1830,13 +1698,10 @@
         <v>45767</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
